--- a/data/trans_camb/P37_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P37_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>9,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>10,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>12,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,36</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5,13</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6,74</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 15,04</t>
+          <t>-1,77; 24,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 13,48</t>
+          <t>-1,87; 25,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 6,65</t>
+          <t>-0,56; 30,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 6,64</t>
+          <t>-10,37; 9,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 7,53</t>
+          <t>-9,78; 10,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 7,1</t>
+          <t>-9,25; 10,96</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,36; 12,63</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 14,79</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 17,5</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,2%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,31%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>3,54%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11,98%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14,1%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18,53%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 43,94</t>
+          <t>-4,6; 85,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 39,85</t>
+          <t>-4,93; 87,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 18,57</t>
+          <t>-2,21; 106,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 18,25</t>
+          <t>-24,4; 29,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 20,65</t>
+          <t>-22,67; 32,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 18,45</t>
+          <t>-22,19; 33,29</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-8,7; 38,22</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 43,12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 52,4</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-4,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>18,16</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,48</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9,89</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 6,37</t>
+          <t>-17,38; 7,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 9,95</t>
+          <t>-12,85; 11,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 16,07</t>
+          <t>-11,7; 13,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 15,01</t>
+          <t>-3,07; 19,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 8,55</t>
+          <t>-4,29; 18,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 10,74</t>
+          <t>6,83; 31,02</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,68; 9,46</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,13; 12,09</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 19,35</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,65%</t>
+          <t>-13,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>-0,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>55,79%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10,24%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29,13%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,88; 25,63</t>
+          <t>-41,61; 25,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,34; 40,61</t>
+          <t>-32,01; 39,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 55,27</t>
+          <t>-28,73; 48,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 50,71</t>
+          <t>-8,61; 70,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 29,79</t>
+          <t>-11,38; 66,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 38,25</t>
+          <t>18,02; 121,43</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-17,52; 31,6</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-13,08; 40,88</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 63,7</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,1</t>
+          <t>9,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-19,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,41</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,52</t>
+          <t>19,21</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>9,67</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,46</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9,53</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 35,98</t>
+          <t>-35,85; 43,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-30,41; 15,35</t>
+          <t>-57,29; 10,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 14,86</t>
+          <t>-35,84; 47,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 29,27</t>
+          <t>-13,86; 29,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 22,84</t>
+          <t>-4,57; 40,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 17,95</t>
+          <t>-10,53; 29,7</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-18,06; 31,03</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-27,79; 18,21</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-16,53; 35,1</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>49,73%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,07%</t>
+          <t>-45,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,33%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>50,51%</t>
+          <t>30,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>78,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>39,43%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>25,1%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-3,64%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>28,29%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,97; 185,52</t>
+          <t>-68,27; 234,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,52; 80,71</t>
+          <t>-90,81; 51,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,98; 73,64</t>
+          <t>-67,99; 234,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 158,15</t>
+          <t>-41,41; 220,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,16; 109,09</t>
+          <t>-15,04; 291,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,65; 86,15</t>
+          <t>-32,09; 200,39</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-44,64; 131,04</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-58,07; 79,67</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-39,76; 161,85</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>8,72</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3,65</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,82</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8,29</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 9,42</t>
+          <t>-5,12; 12,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 7,63</t>
+          <t>-5,91; 12,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 7,62</t>
+          <t>-1,74; 18,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 8,85</t>
+          <t>-3,54; 10,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 7,25</t>
+          <t>-2,83; 10,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 6,91</t>
+          <t>2,13; 16,83</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 9,81</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 10,02</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 14,59</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>25,49%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10,87%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>23,61%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 30,1</t>
+          <t>-13,04; 41,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 24,75</t>
+          <t>-14,88; 39,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 22,95</t>
+          <t>-4,66; 57,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 26,76</t>
+          <t>-9,18; 32,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 21,81</t>
+          <t>-7,8; 35,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 20,38</t>
+          <t>5,7; 53,41</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 30,05</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 30,67</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 44,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
